--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2029219.640729296</v>
+        <v>2024961.378502821</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>146.2321245752386</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>82.20222227004871</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>110.9505348906459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>197.5339758908239</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>194.1232655958955</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>9.849175038179453</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>124.3703705616603</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>112.3865228273882</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>89.64377352587636</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1192,13 +1192,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>103.6044935214633</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>93.86274763810877</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>10.74993283584276</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>71.56327578339665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>47.88058113793399</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>71.60395572454149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>36.86080948088116</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8152577453158</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>200.2162519639183</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>139.1584054594684</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>65.06198119183985</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1635.554652312817</v>
+        <v>1113.59500083975</v>
       </c>
       <c r="C2" t="n">
-        <v>1266.592135372406</v>
+        <v>744.6324838993385</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.592135372406</v>
+        <v>744.6324838993385</v>
       </c>
       <c r="E2" t="n">
-        <v>880.8038827741614</v>
+        <v>744.6324838993385</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8179779845538</v>
+        <v>333.6465791097309</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7180875944842</v>
+        <v>320.5870927600654</v>
       </c>
       <c r="H2" t="n">
-        <v>52.7180875944842</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903776</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>642.3082349403372</v>
+        <v>474.9025859199842</v>
       </c>
       <c r="L2" t="n">
-        <v>1042.407704672376</v>
+        <v>1025.843037648564</v>
       </c>
       <c r="M2" t="n">
-        <v>1227.023259395749</v>
+        <v>1210.458592371937</v>
       </c>
       <c r="N2" t="n">
-        <v>1419.239895182999</v>
+        <v>1629.431735936304</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937495</v>
+        <v>2174.5933726908</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239692</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.90437972421</v>
@@ -4360,22 +4360,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="W2" t="n">
-        <v>2395.620250638019</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="X2" t="n">
-        <v>2022.154492376939</v>
+        <v>1890.334172879684</v>
       </c>
       <c r="Y2" t="n">
-        <v>2022.154492376939</v>
+        <v>1500.194840903872</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352079</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>237.3598989302719</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L3" t="n">
-        <v>740.3427331273829</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M3" t="n">
-        <v>1379.279198108101</v>
+        <v>1061.99243089733</v>
       </c>
       <c r="N3" t="n">
         <v>1643.297497944258</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.8421572990156</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C4" t="n">
-        <v>314.9059743711088</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D4" t="n">
-        <v>164.789334958773</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E4" t="n">
-        <v>164.789334958773</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F4" t="n">
-        <v>164.789334958773</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>164.789334958773</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>164.789334958773</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
         <v>52.7180875944842</v>
@@ -4512,28 +4512,28 @@
         <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>917.0295025661763</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S4" t="n">
-        <v>709.4945613603447</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T4" t="n">
-        <v>483.8421572990156</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U4" t="n">
-        <v>483.8421572990156</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V4" t="n">
-        <v>483.8421572990156</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W4" t="n">
-        <v>483.8421572990156</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="X4" t="n">
-        <v>483.8421572990156</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="Y4" t="n">
-        <v>483.8421572990156</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1715.047708148652</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="C5" t="n">
-        <v>1715.047708148652</v>
+        <v>1677.576492502431</v>
       </c>
       <c r="D5" t="n">
-        <v>1705.099046493925</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="E5" t="n">
         <v>1319.31079389568</v>
@@ -4567,25 +4567,25 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002453</v>
+        <v>240.3507333903776</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199842</v>
+        <v>642.3082349403372</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648564</v>
+        <v>1193.248686668918</v>
       </c>
       <c r="M5" t="n">
-        <v>1655.476990529841</v>
+        <v>1822.882639550195</v>
       </c>
       <c r="N5" t="n">
-        <v>1847.693626317092</v>
+        <v>2015.099275337445</v>
       </c>
       <c r="O5" t="n">
-        <v>2392.855263071588</v>
+        <v>2282.982253027263</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992997</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.90437972421</v>
@@ -4597,22 +4597,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.652798385543</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.187040124463</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.047708148652</v>
+        <v>1873.660599164952</v>
       </c>
     </row>
     <row r="6">
@@ -4658,10 +4658,10 @@
         <v>1523.04044400983</v>
       </c>
       <c r="N6" t="n">
-        <v>2175.426777991572</v>
+        <v>2033.22119402822</v>
       </c>
       <c r="O6" t="n">
-        <v>2506.50087810347</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P6" t="n">
         <v>2613.977979877466</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.9832702326423</v>
+        <v>645.31064044809</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9832702326423</v>
+        <v>476.3744575201831</v>
       </c>
       <c r="D7" t="n">
-        <v>217.8666308203066</v>
+        <v>326.2578181078474</v>
       </c>
       <c r="E7" t="n">
-        <v>217.8666308203066</v>
+        <v>178.3447245254542</v>
       </c>
       <c r="F7" t="n">
-        <v>70.97668332239621</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>70.97668332239621</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239621</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239621</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
         <v>52.7180875944842</v>
@@ -4749,28 +4749,28 @@
         <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>917.0295025661763</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>709.4945613603447</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T7" t="n">
-        <v>709.4945613603447</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>709.4945613603447</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V7" t="n">
-        <v>595.9728211306597</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W7" t="n">
-        <v>595.9728211306597</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="X7" t="n">
-        <v>367.9832702326423</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.9832702326423</v>
+        <v>826.9591052783297</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2062.761811180039</v>
+        <v>567.3006362950141</v>
       </c>
       <c r="C8" t="n">
-        <v>2062.761811180039</v>
+        <v>567.3006362950141</v>
       </c>
       <c r="D8" t="n">
-        <v>1704.496112573288</v>
+        <v>567.3006362950141</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.707859975044</v>
+        <v>567.3006362950141</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7219551854364</v>
+        <v>560.3551355458106</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>143.2673537822381</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>143.2673537822381</v>
       </c>
       <c r="I8" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>73.9523375878675</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3287504086591</v>
+        <v>1033.218542125548</v>
       </c>
       <c r="M8" t="n">
-        <v>896.0281632340667</v>
+        <v>1219.917954950955</v>
       </c>
       <c r="N8" t="n">
-        <v>1523.335831293913</v>
+        <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>2070.49703606099</v>
+        <v>1961.413372610015</v>
       </c>
       <c r="P8" t="n">
-        <v>2499.812082400285</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.90437972421</v>
@@ -4831,25 +4831,25 @@
         <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="T8" t="n">
-        <v>2421.104517991922</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="U8" t="n">
-        <v>2167.412814737072</v>
+        <v>2011.197777233901</v>
       </c>
       <c r="V8" t="n">
-        <v>2167.412814737072</v>
+        <v>1680.13488989033</v>
       </c>
       <c r="W8" t="n">
-        <v>2167.412814737072</v>
+        <v>1327.366234620216</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.761811180039</v>
+        <v>953.9004763591358</v>
       </c>
       <c r="Y8" t="n">
-        <v>2062.761811180039</v>
+        <v>953.9004763591358</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578412</v>
+        <v>382.1464919002941</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>886.5080317664126</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.232796591064</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
-        <v>1917.619130572807</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2467.05513932553</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2575.744766852828</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>312.2934790518671</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C10" t="n">
-        <v>312.2934790518671</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>312.2934790518671</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E10" t="n">
-        <v>312.2934790518671</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>165.4035315539567</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>165.4035315539567</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>70.59267535384681</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384681</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
         <v>52.7180875944842</v>
@@ -4986,28 +4986,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1748077732316</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>714.7345230256369</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>714.7345230256369</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>714.7345230256369</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>714.7345230256369</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>714.7345230256369</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>714.7345230256369</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>493.9419438821068</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5123,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.425677595856</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5369,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4517.069482196493</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4517.069482196493</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990607</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306003</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>2824.769373306003</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>2674.652733893667</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>2674.652733893667</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2527.762786395757</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558406</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630499</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>2438.670847218163</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>2337.686731866305</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866305</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866305</v>
+        <v>198.744407872558</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2854.440648734749</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6794,13 +6794,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,16 +7028,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,7 +7186,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7262,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3093.254426444652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>2924.318243516745</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2774.20160410441</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2626.288510522017</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>4086.138214729047</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>3831.45372652316</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W43" t="n">
-        <v>3542.0365564862</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>3314.047005588182</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>3093.254426444652</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.1035305473703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1673476194634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>596.0507082071276</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1376146247345</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>301.2476671268241</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>301.2476671268241</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>159.5358359690222</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>265.2965862711155</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.0469775526432</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7999,7 +7999,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>67.68992429782654</v>
+        <v>388.1816083491101</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>100.7207276620604</v>
       </c>
       <c r="P5" t="n">
-        <v>101.3321522312935</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792256</v>
+        <v>316.3388638758399</v>
       </c>
       <c r="O6" t="n">
-        <v>174.8207646365514</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>251.5805925818469</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>102.1294720225558</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,25 +8534,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243205</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.95094644515975</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>117.6435571543349</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>180.5336875992865</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>249.323664908363</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>39.70888054695307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>85.96822242532585</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>16.20385512672567</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>915539.4620818939</v>
+        <v>915539.4620818938</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="14">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.619783004</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830044</v>
@@ -26340,22 +26340,22 @@
         <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821405</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695027</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486119.1548835235</v>
+        <v>-486119.1548835231</v>
       </c>
       <c r="C6" t="n">
-        <v>303726.7782387183</v>
+        <v>303726.7782387186</v>
       </c>
       <c r="D6" t="n">
         <v>301611.7864313441</v>
       </c>
       <c r="E6" t="n">
-        <v>-318031.6628055904</v>
+        <v>-318379.0420599474</v>
       </c>
       <c r="F6" t="n">
-        <v>457592.6094274021</v>
+        <v>457245.2301730451</v>
       </c>
       <c r="G6" t="n">
-        <v>457592.6094274021</v>
+        <v>457245.2301730454</v>
       </c>
       <c r="H6" t="n">
-        <v>457592.6094274023</v>
+        <v>457245.2301730452</v>
       </c>
       <c r="I6" t="n">
-        <v>457592.6094274022</v>
+        <v>457245.2301730452</v>
       </c>
       <c r="J6" t="n">
-        <v>285175.4680452616</v>
+        <v>284828.0887909048</v>
       </c>
       <c r="K6" t="n">
-        <v>457592.6094274026</v>
+        <v>457245.2301730451</v>
       </c>
       <c r="L6" t="n">
-        <v>457592.6094274024</v>
+        <v>457245.2301730451</v>
       </c>
       <c r="M6" t="n">
-        <v>329568.4919610152</v>
+        <v>329221.1127066584</v>
       </c>
       <c r="N6" t="n">
-        <v>457592.6094274021</v>
+        <v>457245.2301730454</v>
       </c>
       <c r="O6" t="n">
-        <v>457592.6094274026</v>
+        <v>457245.2301730454</v>
       </c>
       <c r="P6" t="n">
-        <v>457592.6094274026</v>
+        <v>457245.2301730451</v>
       </c>
     </row>
   </sheetData>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>168.9315268963785</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>267.0387464473643</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9261537524327</v>
@@ -27557,7 +27557,7 @@
         <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>12.4777299935752</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
         <v>18.07600977063289</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>21.05067746127085</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>188.610576067585</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>344.8338665825035</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>21.05067746127092</v>
       </c>
       <c r="G7" t="n">
         <v>166.9261537524327</v>
@@ -27797,7 +27797,7 @@
         <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
@@ -27833,16 +27833,16 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>139.7511204964398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>28.85226736801394</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>266.1266071570058</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>58.84934903112378</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226042</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>303.4297552732306</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463569</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
         <v>406.0176783332926</v>
       </c>
       <c r="L2" t="n">
-        <v>404.1408785172109</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M2" t="n">
         <v>186.4803583064373</v>
       </c>
       <c r="N2" t="n">
-        <v>194.1582179669193</v>
+        <v>423.2051955195625</v>
       </c>
       <c r="O2" t="n">
         <v>550.6683199540363</v>
@@ -34719,7 +34719,7 @@
         <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459781</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.2518573138624</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329688</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L3" t="n">
         <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673921</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N3" t="n">
-        <v>266.6851513496535</v>
+        <v>587.1768354009371</v>
       </c>
       <c r="O3" t="n">
         <v>553.459837581489</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428316</v>
+        <v>189.5279250463569</v>
       </c>
       <c r="K5" t="n">
         <v>406.0176783332926</v>
@@ -34950,13 +34950,13 @@
         <v>194.1582179669193</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540363</v>
+        <v>270.5888663533514</v>
       </c>
       <c r="P5" t="n">
-        <v>211.4611827488987</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607346</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310526</v>
+        <v>515.3340909276669</v>
       </c>
       <c r="O6" t="n">
-        <v>334.4182829413108</v>
+        <v>159.5975183047594</v>
       </c>
       <c r="P6" t="n">
-        <v>108.5627290646426</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
         <v>22.14787863307501</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>392.3166085831128</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>137.466966993864</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310526</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>59.91755371988398</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>477.98533214273</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>160.8335108287862</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024961.378502821</v>
+        <v>2026721.908805607</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616886</v>
+        <v>35.25194294079438</v>
       </c>
       <c r="H2" t="n">
-        <v>146.2321245752386</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>124.3703705616576</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.5339758908239</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194.1232655958955</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>200.7883341821897</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>124.3703705616603</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>124.3703705616576</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>110.2818806115341</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>89.64377352587636</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1900,10 +1900,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8253826161909023</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>220.9731342426603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>103.8784673763403</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>119.6255281319618</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114.2821160880066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>139.1584054594684</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>103.8784673763403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1113.59500083975</v>
+        <v>1328.44786808453</v>
       </c>
       <c r="C2" t="n">
-        <v>744.6324838993385</v>
+        <v>959.4853511441181</v>
       </c>
       <c r="D2" t="n">
-        <v>744.6324838993385</v>
+        <v>601.2196525373677</v>
       </c>
       <c r="E2" t="n">
-        <v>744.6324838993385</v>
+        <v>215.4313999391234</v>
       </c>
       <c r="F2" t="n">
-        <v>333.6465791097309</v>
+        <v>208.48589918992</v>
       </c>
       <c r="G2" t="n">
-        <v>320.5870927600654</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002453</v>
+        <v>72.94508437002398</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199842</v>
+        <v>474.9025859199828</v>
       </c>
       <c r="L2" t="n">
-        <v>1025.843037648564</v>
+        <v>1025.843037648562</v>
       </c>
       <c r="M2" t="n">
-        <v>1210.458592371937</v>
+        <v>1210.458592371934</v>
       </c>
       <c r="N2" t="n">
-        <v>1629.431735936304</v>
+        <v>1835.648683327047</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.5933726908</v>
+        <v>2380.810320081542</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992997</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4360,22 +4360,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U2" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="V2" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="W2" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="X2" t="n">
-        <v>1890.334172879684</v>
+        <v>2105.187040124463</v>
       </c>
       <c r="Y2" t="n">
-        <v>1500.194840903872</v>
+        <v>1715.047708148652</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640335</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320009</v>
+        <v>381.1211448320004</v>
       </c>
       <c r="L3" t="n">
-        <v>884.103979029112</v>
+        <v>884.1039790291106</v>
       </c>
       <c r="M3" t="n">
-        <v>1061.99243089733</v>
+        <v>1061.992430897328</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944258</v>
+        <v>1435.32098308577</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149932</v>
+        <v>1983.246222291443</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877466</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4439,7 +4439,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4448,13 +4448,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.5739510150303</v>
+        <v>645.3106404480873</v>
       </c>
       <c r="C4" t="n">
-        <v>497.6377680871234</v>
+        <v>476.3744575201804</v>
       </c>
       <c r="D4" t="n">
-        <v>347.5211286747877</v>
+        <v>326.2578181078446</v>
       </c>
       <c r="E4" t="n">
-        <v>199.6080350923946</v>
+        <v>178.3447245254515</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.22241584527</v>
+        <v>826.959105278327</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1677.576492502431</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="C5" t="n">
-        <v>1677.576492502431</v>
+        <v>2063.364745100675</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.31079389568</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="E5" t="n">
-        <v>1319.31079389568</v>
+        <v>1319.310793895681</v>
       </c>
       <c r="F5" t="n">
-        <v>908.324889106073</v>
+        <v>908.3248891060732</v>
       </c>
       <c r="G5" t="n">
-        <v>491.2249987160033</v>
+        <v>491.2249987160036</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903776</v>
+        <v>240.350733390377</v>
       </c>
       <c r="K5" t="n">
-        <v>642.3082349403372</v>
+        <v>642.3082349403358</v>
       </c>
       <c r="L5" t="n">
-        <v>1193.248686668918</v>
+        <v>779.764084263969</v>
       </c>
       <c r="M5" t="n">
-        <v>1822.882639550195</v>
+        <v>964.3796389873407</v>
       </c>
       <c r="N5" t="n">
-        <v>2015.099275337445</v>
+        <v>1419.239895183002</v>
       </c>
       <c r="O5" t="n">
-        <v>2282.982253027263</v>
+        <v>1964.401531937497</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239692</v>
+        <v>2392.009993239693</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140763</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="V5" t="n">
-        <v>2263.799931140763</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="W5" t="n">
-        <v>2263.799931140763</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="X5" t="n">
-        <v>2263.799931140763</v>
+        <v>2432.327262041087</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.660599164952</v>
+        <v>2432.327262041087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120981</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309711</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697199</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642644</v>
+        <v>483.8069872642646</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911494</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H6" t="n">
-        <v>98.8460046381575</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320009</v>
+        <v>119.3005601895475</v>
       </c>
       <c r="L6" t="n">
-        <v>884.103979029112</v>
+        <v>622.2833943866577</v>
       </c>
       <c r="M6" t="n">
-        <v>1523.04044400983</v>
+        <v>1261.219859367375</v>
       </c>
       <c r="N6" t="n">
-        <v>2033.22119402822</v>
+        <v>1643.297497944261</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149932</v>
+        <v>2191.222737149934</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877466</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.31064044809</v>
+        <v>519.68400351712</v>
       </c>
       <c r="C7" t="n">
-        <v>476.3744575201831</v>
+        <v>350.7478205892131</v>
       </c>
       <c r="D7" t="n">
-        <v>326.2578181078474</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="E7" t="n">
-        <v>178.3447245254542</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.75168442186</v>
+        <v>922.1250474908899</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.75168442186</v>
+        <v>922.1250474908899</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.75168442186</v>
+        <v>922.1250474908899</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.9591052783297</v>
+        <v>701.3324683473597</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>567.3006362950141</v>
+        <v>177.1613043192023</v>
       </c>
       <c r="C8" t="n">
-        <v>567.3006362950141</v>
+        <v>177.1613043192023</v>
       </c>
       <c r="D8" t="n">
-        <v>567.3006362950141</v>
+        <v>177.1613043192023</v>
       </c>
       <c r="E8" t="n">
-        <v>567.3006362950141</v>
+        <v>177.1613043192023</v>
       </c>
       <c r="F8" t="n">
-        <v>560.3551355458106</v>
+        <v>65.76546531765268</v>
       </c>
       <c r="G8" t="n">
-        <v>143.2673537822381</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H8" t="n">
-        <v>143.2673537822381</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
         <v>52.7180875944842</v>
@@ -4810,13 +4810,13 @@
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125548</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950955</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842938</v>
+        <v>1578.671983591855</v>
       </c>
       <c r="O8" t="n">
         <v>1961.413372610015</v>
@@ -4849,7 +4849,7 @@
         <v>953.9004763591358</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9004763591358</v>
+        <v>563.7611443833241</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.7180875944842</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1464919002941</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>886.5080317664126</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
         <v>1430.945911741486</v>
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5041,7 +5041,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075813</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
-        <v>94.65038286230612</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5977,28 +5977,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>198.744407872558</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2259.083513032701</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,34 +7785,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.0469775526432</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>113.4987613121498</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546477</v>
+        <v>6.839178026546833</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>388.1816083491101</v>
+        <v>178.1043206132669</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,19 +8221,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>265.2965862711237</v>
       </c>
       <c r="O5" t="n">
-        <v>100.7207276620604</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546477</v>
+        <v>6.839178026546833</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>316.3388638758399</v>
+        <v>186.9417816116949</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5805925818469</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>214.7195592941414</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.54986409393101</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.469330230033</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36.41624546988359</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>61.40075786968275</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823098</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>915887.640545858</v>
+        <v>915887.6405458582</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>915887.640545858</v>
+        <v>915887.6405458582</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830043</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.9331222398</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474159</v>
+        <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329923</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821402</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
@@ -26456,10 +26456,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695077</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695155</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="D5" t="n">
         <v>86631.1255591778</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486119.1548835231</v>
+        <v>-486119.1548835216</v>
       </c>
       <c r="C6" t="n">
-        <v>303726.7782387186</v>
+        <v>303726.7782387177</v>
       </c>
       <c r="D6" t="n">
-        <v>301611.7864313441</v>
+        <v>301611.7864313424</v>
       </c>
       <c r="E6" t="n">
-        <v>-318379.0420599474</v>
+        <v>-318066.400731026</v>
       </c>
       <c r="F6" t="n">
-        <v>457245.2301730451</v>
+        <v>457557.8715019668</v>
       </c>
       <c r="G6" t="n">
-        <v>457245.2301730454</v>
+        <v>457557.8715019664</v>
       </c>
       <c r="H6" t="n">
-        <v>457245.2301730452</v>
+        <v>457557.8715019666</v>
       </c>
       <c r="I6" t="n">
-        <v>457245.2301730452</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="J6" t="n">
-        <v>284828.0887909048</v>
+        <v>285140.7301198263</v>
       </c>
       <c r="K6" t="n">
-        <v>457245.2301730451</v>
+        <v>457557.8715019666</v>
       </c>
       <c r="L6" t="n">
-        <v>457245.2301730451</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="M6" t="n">
-        <v>329221.1127066584</v>
+        <v>329533.75403558</v>
       </c>
       <c r="N6" t="n">
-        <v>457245.2301730454</v>
+        <v>457557.8715019664</v>
       </c>
       <c r="O6" t="n">
-        <v>457245.2301730454</v>
+        <v>457557.8715019664</v>
       </c>
       <c r="P6" t="n">
-        <v>457245.2301730451</v>
+        <v>457557.8715019664</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="D4" t="n">
         <v>658.9760949310526</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724546</v>
+        <v>2.981900632726251</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>377.6769485453745</v>
       </c>
       <c r="H2" t="n">
-        <v>168.9315268963785</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>21.05067746127364</v>
       </c>
       <c r="G4" t="n">
         <v>166.9261537524327</v>
@@ -27557,10 +27557,10 @@
         <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
         <v>205.4595917937733</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05067746127085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>188.610576067585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>11.91600439014215</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05067746127092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9261537524327</v>
@@ -27794,10 +27794,10 @@
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
         <v>205.4595917937733</v>
@@ -27833,7 +27833,7 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>127.7672727621704</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>296.5941651301773</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>28.85226736801394</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M5" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635102</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366204</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387887</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817852</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492038</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004284</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428316</v>
+        <v>20.43130987428259</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332926</v>
+        <v>406.0176783332917</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965458</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064373</v>
+        <v>186.4803583064361</v>
       </c>
       <c r="N2" t="n">
-        <v>423.2051955195625</v>
+        <v>631.5051423789023</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540363</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890878</v>
+        <v>223.627791829754</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607346</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358755</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173922</v>
+        <v>179.6853049173913</v>
       </c>
       <c r="N3" t="n">
-        <v>587.1768354009371</v>
+        <v>377.0995476650929</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045797</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307501</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463569</v>
+        <v>189.5279250463564</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332926</v>
+        <v>406.0176783332917</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965458</v>
+        <v>138.8442922460942</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992698</v>
+        <v>186.4803583064361</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1582179669193</v>
+        <v>459.4548042380418</v>
       </c>
       <c r="O5" t="n">
-        <v>270.5888663533514</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176052</v>
+        <v>431.9277386890869</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459781</v>
+        <v>246.3579661459774</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>67.25502282329629</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673921</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N6" t="n">
-        <v>515.3340909276669</v>
+        <v>385.9370086635209</v>
       </c>
       <c r="O6" t="n">
-        <v>159.5975183047594</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307501</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995565</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P7" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831128</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35187,7 +35187,7 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>386.6074636547065</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35409,10 +35409,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
